--- a/usuarios.xlsx
+++ b/usuarios.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="50" uniqueCount="26">
   <si>
     <t>Nombre</t>
   </si>
@@ -43,6 +43,54 @@
   </si>
   <si>
     <t>Médico</t>
+  </si>
+  <si>
+    <t>Olatz</t>
+  </si>
+  <si>
+    <t>Alzuri</t>
+  </si>
+  <si>
+    <t>olatzal</t>
+  </si>
+  <si>
+    <t>2345</t>
+  </si>
+  <si>
+    <t>Técnico de laboratorio</t>
+  </si>
+  <si>
+    <t>4563</t>
+  </si>
+  <si>
+    <t>2341</t>
+  </si>
+  <si>
+    <t>Maren</t>
+  </si>
+  <si>
+    <t>Fernandez</t>
+  </si>
+  <si>
+    <t>marenfdz</t>
+  </si>
+  <si>
+    <t>Naroa</t>
+  </si>
+  <si>
+    <t>Iturrioz</t>
+  </si>
+  <si>
+    <t>naro</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>Aizpuru</t>
   </si>
 </sst>
 </file>
@@ -88,17 +136,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="true"/>
-    <col min="2" max="2" width="7.5546875" customWidth="true"/>
-    <col min="3" max="3" width="7.33203125" customWidth="true"/>
+    <col min="2" max="2" width="9.33203125" customWidth="true"/>
+    <col min="3" max="3" width="8.6640625" customWidth="true"/>
     <col min="4" max="4" width="10.33203125" customWidth="true"/>
-    <col min="5" max="5" width="3.6640625" customWidth="true"/>
+    <col min="5" max="5" width="19.44140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -129,10 +177,78 @@
         <v>5</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/usuarios.xlsx
+++ b/usuarios.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="55" uniqueCount="29">
   <si>
     <t>Nombre</t>
   </si>
@@ -91,6 +91,15 @@
   </si>
   <si>
     <t>Aizpuru</t>
+  </si>
+  <si>
+    <t>Eva</t>
+  </si>
+  <si>
+    <t>Eguiguren</t>
+  </si>
+  <si>
+    <t>evaegui</t>
   </si>
 </sst>
 </file>
@@ -136,7 +145,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -251,6 +260,23 @@
         <v>14</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/usuarios.xlsx
+++ b/usuarios.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="55" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="60" uniqueCount="31">
   <si>
     <t>Nombre</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>evaegui</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Naroa888</t>
   </si>
 </sst>
 </file>
@@ -145,7 +151,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -277,6 +283,23 @@
         <v>9</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/usuarios.xlsx
+++ b/usuarios.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="60" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="65" uniqueCount="34">
   <si>
     <t>Nombre</t>
   </si>
@@ -106,6 +106,15 @@
   </si>
   <si>
     <t>Naroa888</t>
+  </si>
+  <si>
+    <t>Maite</t>
+  </si>
+  <si>
+    <t>Glez.de Audikana</t>
+  </si>
+  <si>
+    <t>Maite1234</t>
   </si>
 </sst>
 </file>
@@ -151,14 +160,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="true"/>
-    <col min="2" max="2" width="9.33203125" customWidth="true"/>
+    <col min="2" max="2" width="14.88671875" customWidth="true"/>
     <col min="3" max="3" width="8.6640625" customWidth="true"/>
     <col min="4" max="4" width="10.33203125" customWidth="true"/>
     <col min="5" max="5" width="19.44140625" customWidth="true"/>
@@ -300,6 +309,23 @@
         <v>9</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>